--- a/biology/Médecine/Ministère_de_la_Santé_(Italie)/Ministère_de_la_Santé_(Italie).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Italie)/Ministère_de_la_Santé_(Italie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+          <t>Ministère_de_la_Santé_(Italie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ministère de la Santé de l'Italie (Ministero della Salute) est un département ministériel de la République italienne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+          <t>Ministère_de_la_Santé_(Italie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la santé est l'organe central du service national de santé, auquel sont attribuées les fonctions relevant de l'État dans le domaine de la protection de la santé humaine, de la coordination du système national de santé, de la santé vétérinaire, de la protection de la santé sur le lieu de travail, de l'hygiène et de la sécurité alimentaire, sans préjudice des compétences exclusives des Régions, qui les exercent par le biais des agences sanitaires locales. Elle prépare le plan national de santé et assure le lien avec l'Organisation mondiale de la santé - OMS et l'Agence européenne des médicaments - EMA.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+          <t>Ministère_de_la_Santé_(Italie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,122 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les origines du ministère remontent au décret royal n° 255 du 9 octobre 1861, qui a supprimé le secrétariat général du ministère de l'intérieur et créé quatre directions générales, dont la direction générale des œuvres pieuses et des œuvres de charité. Toutefois, le décret royal n° 482 du 10 mars 1862 a reconstitué le secrétariat général, en supprimant à nouveau les directions générales. Par la suite, le décret royal n° 4707 du 3 juillet 1887 a créé la Direction générale de la santé publique, toujours au sein du ministère de l'Intérieur[1]..
-1945 - ACIS
-La situation est restée inchangée jusqu'au lendemain de la Seconde Guerre mondiale, lorsque, par le décret du Lieutenant Général n° 417 du 12 juillet 1945, la Direction générale a été supprimée et l'ACIS - Alto Commissariato per l'Igiene e la Sanità pubblica - Commission supérieure d'hygiène et de santé publique - a été créée à la Présidence du Conseil des ministres.
-1958 - Ministère de la Santé
-Formellement, le ministère de la santé a été créé en tant que ministère de la santé, avec la loi 296 du 13 mars 1958, par séparation du ministère de l'intérieur, sous le gouvernement Fanfani II, et avec l'unification des fonctions du haut commissaire à l'hygiène et à la santé. La proposition du médecin Raffaele Caporali en 1957, l'année de sa mort, a été acceptée avec le projet de loi R. Caporali - Francesco De Bosio)[2].
-1978 - Service national de santé
-Avec la réforme de la loi n° 833/1978, le ministère est passé du statut de simple connexion des structures sanitaires à celui de chef du Service national de santé (servizio sanitario nazionale - SSN). Ses fonctions ont beaucoup varié avec l'accroissement progressif des pouvoirs des régions : l'article 117 de la Constitution a placé la santé parmi les matières réservées aux compétences régionales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les origines du ministère remontent au décret royal n° 255 du 9 octobre 1861, qui a supprimé le secrétariat général du ministère de l'intérieur et créé quatre directions générales, dont la direction générale des œuvres pieuses et des œuvres de charité. Toutefois, le décret royal n° 482 du 10 mars 1862 a reconstitué le secrétariat général, en supprimant à nouveau les directions générales. Par la suite, le décret royal n° 4707 du 3 juillet 1887 a créé la Direction générale de la santé publique, toujours au sein du ministère de l'Intérieur..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Italie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1945 - ACIS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La situation est restée inchangée jusqu'au lendemain de la Seconde Guerre mondiale, lorsque, par le décret du Lieutenant Général n° 417 du 12 juillet 1945, la Direction générale a été supprimée et l'ACIS - Alto Commissariato per l'Igiene e la Sanità pubblica - Commission supérieure d'hygiène et de santé publique - a été créée à la Présidence du Conseil des ministres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Italie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1958 - Ministère de la Santé</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formellement, le ministère de la santé a été créé en tant que ministère de la santé, avec la loi 296 du 13 mars 1958, par séparation du ministère de l'intérieur, sous le gouvernement Fanfani II, et avec l'unification des fonctions du haut commissaire à l'hygiène et à la santé. La proposition du médecin Raffaele Caporali en 1957, l'année de sa mort, a été acceptée avec le projet de loi R. Caporali - Francesco De Bosio).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Italie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1978 - Service national de santé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec la réforme de la loi n° 833/1978, le ministère est passé du statut de simple connexion des structures sanitaires à celui de chef du Service national de santé (servizio sanitario nazionale - SSN). Ses fonctions ont beaucoup varié avec l'accroissement progressif des pouvoirs des régions : l'article 117 de la Constitution a placé la santé parmi les matières réservées aux compétences régionales.
 Avec la réforme Bindi et la réforme Bassanini au cours des années 90, les compétences du ministère au niveau central sont restées très limitées, également en raison de la nouvelle modification de l'art. 117 de la Constitution, qui a complètement transféré les compétences de l'organisation sanitaire aux Régions (réforme du Titre V de la Constitution, constitutionnalisant ce qui avait déjà été fait il y a des années par une loi ordinaire par les gouvernements de l'Olivier).
 Pour ces raisons, la réforme Bassanini sur l'organisation du gouvernement, le décret législatif n° 300/1999, l'a supprimé (mais seulement à partir de 2001) alors que ses compétences résiduelles auraient dû passer au ministère du travail, de la santé et des politiques sociales. En fait, avant la mise en œuvre effective de la réforme Bassanini, ces compétences ont été transférées au ministère de la santé, créé par la loi n° 317 du 3 août 2001, par le gouvernement Berlusconi II de l'époque, et séparées du ministère susmentionné, dont le nom a été changé en ministère du travail et des politiques sociales.
 La loi de finances pour 2008 (loi n° 244 du 24 décembre 2007) prévoyait la reconstitution des 12 ministères prévus par la réforme Bassanini du décret législatif n° 300/1999, avec la fusion conséquente du ministère de la santé dans le ministère du travail, de la santé et des politiques sociales susmentionné. Toutefois, après seulement un an environ, il a été jugé nécessaire de séparer les compétences en matière de santé du nouveau ministère et le gouvernement a présenté un projet de loi pour le rétablissement du ministère de la santé.
@@ -561,31 +682,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Italie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère est organisé avec des bureaux dépendant directement de la direction politique et avec des bureaux administratifs.
 Il rend compte directement au ministre et aux sous-secrétaires d'État :
@@ -614,31 +737,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Italie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Structures périphériques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les bureaux territoriaux suivants dépendent du ministère :
 12 bureaux sanitaires maritimes, aériens et frontaliers - (uffici di sanità marittima, aerea e di frontiera - USMAF), qui sont des bureaux du ministère situés dans les principaux ports et aéroports afin de surveiller le risque de maladies importées de l'étranger.
@@ -648,31 +773,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Italie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Entités surveillées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Sous la tutelle du ministre de la Santé, il existe également plusieurs organismes composant le Service national de santé, qui ont trouvé leur interlocuteur national au sein du ministère. Ils le sont :
 le Conseil supérieur de la santé (Consiglio superiore di sanità), institué par l'édit royal du roi Carlo Alberto du 30 octobre 1847, est l'organe consultatif technique et scientifique du ministre de la santé. L'organisation et le fonctionnement actuels du Conseil supérieur de la santé sont régis par le décret législatif n° 266 du 30 juin 1993 et le décret ministériel n° 342 du 6 août 2003, qui prévoient cinq sections traitant de diverses questions sociales et sanitaires.
@@ -686,31 +813,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Italie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Commissions et organes consultatifs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Plusieurs commissions et organes consultatifs sont situés au sein du département :
 Commission nationale pour la lutte contre le SIDA
@@ -735,9 +864,43 @@
 Comité national pour la sécurité alimentaire (CNSA)
 Commission unique pour la diététique et la nutrition
 Comité consultatif sur les produits phytopharmaceutiques
-Comité consultatif pour la délivrance de licences de publicité sanitaire
-Titulaires
-Liste des ministres italiens de la Santé</t>
+Comité consultatif pour la délivrance de licences de publicité sanitaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Italie)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Italie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Commissions et organes consultatifs</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Titulaires</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Liste des ministres italiens de la Santé</t>
         </is>
       </c>
     </row>
